--- a/aut-api/data/api.xlsx
+++ b/aut-api/data/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView windowWidth="19770" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -96,14 +96,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,51 +104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +118,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,25 +185,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,21 +207,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -233,7 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +248,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,139 +404,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,21 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,26 +457,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +524,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,137 +559,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1064,7 +1061,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1082,11 +1079,11 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1143,7 +1140,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1152,7 +1149,7 @@
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">

--- a/aut-api/data/api.xlsx
+++ b/aut-api/data/api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>如需登录请把登录接口填写到下方</t>
   </si>
@@ -57,7 +57,28 @@
 }</t>
   </si>
   <si>
-    <t>post</t>
+    <t>https</t>
+  </si>
+  <si>
+    <t>api.apiopen.top</t>
+  </si>
+  <si>
+    <t>/musicBroadcasting</t>
+  </si>
+  <si>
+    <t>{"name":"李白"}</t>
+  </si>
+  <si>
+    <t>/searchAuthors</t>
+  </si>
+  <si>
+    <t>/satinCommentApi</t>
+  </si>
+  <si>
+    <t>{
+"id":"27610708",
+"page":"1"
+}</t>
   </si>
 </sst>
 </file>
@@ -104,7 +125,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,13 +147,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -140,6 +154,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -147,15 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,15 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,17 +190,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,25 +230,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +460,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,81 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,7 +580,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,127 +592,130 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,6 +724,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -707,6 +734,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,61 +1097,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="11.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="3" width="11.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1138,58 +1168,116 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" ht="67.5" spans="1:6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/aut-api/data/api.xlsx
+++ b/aut-api/data/api.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" activeTab="1"/>
+    <workbookView windowHeight="18465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>如需登录请把登录接口填写到下方</t>
   </si>
@@ -57,7 +57,16 @@
 }</t>
   </si>
   <si>
+    <t>ContentType</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+  </si>
+  <si>
     <t>https</t>
+  </si>
+  <si>
+    <t>application/json</t>
   </si>
   <si>
     <t>api.apiopen.top</t>
@@ -86,8 +95,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -117,7 +126,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,7 +141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,14 +163,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,16 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,8 +223,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,61 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,79 +278,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,103 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,80 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,7 +491,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,19 +589,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,116 +610,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,9 +730,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1097,23 +1103,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="3" width="11.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="11.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1136,22 +1142,22 @@
       </c>
     </row>
     <row r="3" ht="81" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1168,22 +1174,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1194,90 +1201,97 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:6">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" ht="54" spans="1:6">
+    <row r="5" ht="54" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/aut-api/data/api.xlsx
+++ b/aut-api/data/api.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18465" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="初始化" sheetId="1" r:id="rId1"/>
     <sheet name="接口信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,61 +15,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
-  <si>
-    <t>如需登录请把登录接口填写到下方</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+  <si>
+    <t>请填写项目协议及地址（必填），如需登录，请填写登录路径及参数。
+所有转为参数为json格式</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>ContentType</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Parameters(json)</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>api.apiopen.top</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Protocol</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Parameters(json)</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>www.jianshu.com</t>
-  </si>
-  <si>
-    <t>/users/recommended</t>
-  </si>
-  <si>
-    <t>{
- "seen_ids": "",
- "count": "",
- "only_unfollowed": "true"
-}</t>
-  </si>
-  <si>
-    <t>ContentType</t>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded</t>
-  </si>
-  <si>
-    <t>https</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>api.apiopen.top</t>
   </si>
   <si>
     <t>/musicBroadcasting</t>
@@ -95,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,22 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,16 +130,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,8 +175,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,15 +222,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,32 +237,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,26 +454,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,37 +502,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +540,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,137 +571,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +715,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -740,12 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,33 +1080,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="3" width="11.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1131,39 +1115,29 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="81" spans="1:6">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1174,127 +1148,99 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="36.25" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="54" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" ht="54" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="6:6">
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:C1 D1:XFD1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"get,post"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"application/json,application/x-www-form-urlencoded"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/aut-api/data/api.xlsx
+++ b/aut-api/data/api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>请填写项目协议及地址（必填），如需登录，请填写登录路径及参数。
 所有转为参数为json格式</t>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>form</t>
   </si>
   <si>
     <t>/musicBroadcasting</t>
@@ -70,6 +73,9 @@
 "id":"27610708",
 "page":"1"
 }</t>
+  </si>
+  <si>
+    <t>/novelApi</t>
   </si>
 </sst>
 </file>
@@ -77,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,7 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +136,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,60 +189,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,47 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +266,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,37 +392,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,121 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +469,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -474,15 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,145 +565,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1089,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1151,14 +1157,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
@@ -1188,13 +1194,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1205,10 +1211,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:5">
@@ -1219,13 +1225,27 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="6:6">
@@ -1233,12 +1253,12 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:C1 D1:XFD1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1:XFD1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"get,post"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"application/json,application/x-www-form-urlencoded"</formula1>
+      <formula1>"json,form"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/aut-api/data/api.xlsx
+++ b/aut-api/data/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="初始化" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>请填写项目协议及地址（必填），如需登录，请填写登录路径及参数。
 所有转为参数为json格式</t>
@@ -42,7 +42,7 @@
     <t>api.apiopen.top</t>
   </si>
   <si>
-    <t>application/x-www-form-urlencoded</t>
+    <t>form</t>
   </si>
   <si>
     <t>Id</t>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>form</t>
   </si>
   <si>
     <t>/musicBroadcasting</t>
@@ -1088,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1145,6 +1142,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"form,json"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1156,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1194,13 +1196,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1211,10 +1213,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:5">
@@ -1225,13 +1227,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1242,10 +1244,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="6:6">
